--- a/data/long_dif/P18_6-Estudios-long_dif.xlsx
+++ b/data/long_dif/P18_6-Estudios-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,32%</t>
+          <t>25,01%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>35,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>37,12%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28,41%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30,31%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>36,58%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,85; 34,36</t>
+          <t>16,25; 35,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,11; 22,25</t>
+          <t>11,21; 26,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,73; 32,56</t>
+          <t>20,01; 33,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,56; 34,52</t>
+          <t>22,92; 46,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,7; 45,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,2; 37,61</t>
+          <t>22,83; 40,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,83; 31,68</t>
+          <t>31,38; 48,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,68; 34,16</t>
+          <t>26,75; 38,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,44; 33,32</t>
+          <t>28,91; 46,37</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21,84; 35,89</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24,42; 37,09</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>24,81; 33,52</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>28,32; 43,42</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>48,13%</t>
+          <t>48,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,58%</t>
+          <t>52,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>40,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>46,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,11%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>34,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>47,49%</t>
+          <t>42,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>37,36%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>43,28%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>42,7%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>41,81%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>41,24%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,8; 58,68</t>
+          <t>36,94; 64,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,34; 70,07</t>
+          <t>42,15; 68,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,96; 49,7</t>
+          <t>31,88; 48,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,6; 47,07</t>
+          <t>34,56; 65,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,9; 48,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,05; 53,22</t>
+          <t>30,62; 48,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,49; 50,14</t>
+          <t>26,29; 43,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,68; 54,98</t>
+          <t>36,38; 48,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,51; 48,99</t>
+          <t>29,24; 46,0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35,4; 52,59</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>35,74; 51,24</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>36,54; 46,47</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>34,44; 53,94</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>33,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>25,53%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28,31%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26,99%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>28,91%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>22,17%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,3; 41,47</t>
+          <t>16,62; 37,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,79; 33,55</t>
+          <t>18,66; 38,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,99; 44,79</t>
+          <t>25,25; 47,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,17; 41,05</t>
+          <t>10,7; 26,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 30,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,63; 29,48</t>
+          <t>20,97; 38,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,47; 37,69</t>
+          <t>18,22; 34,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,04; 29,5</t>
+          <t>20,44; 31,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,2; 34,53</t>
+          <t>18,49; 34,32</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>21,83; 35,42</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21,42; 32,91</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>24,41; 36,44</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>16,66; 27,58</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,38; 31,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,14; 34,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,78; 37,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,11; 29,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,2; 40,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,31; 32,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,45; 28,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,43; 36,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,35; 33,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,7%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>52,05%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>46,9%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>35,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>42,22%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>49,54%</t>
+          <t>29,36%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24,44%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>30,75%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>31,81%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,29; 47,31</t>
+          <t>18,33; 31,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,94; 51,29</t>
+          <t>24,72; 35,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>46,31; 56,93</t>
+          <t>26,94; 37,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,86; 39,62</t>
+          <t>27,44; 42,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,98; 44,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,8; 51,55</t>
+          <t>19,82; 31,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,93; 41,93</t>
+          <t>30,25; 40,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,59; 46,15</t>
+          <t>25,81; 34,24</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>45,78; 53,16</t>
+          <t>24,98; 34,48</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>20,56; 28,88</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>29,07; 36,77</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>27,82; 34,1</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>28,03; 36,95</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,85%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>46,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>35,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>36,64%</t>
+          <t>38,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>46,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>39,08%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>38,54%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>42,55%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>49,17%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>39,2%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,66; 39,8</t>
+          <t>34,81; 48,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,72; 29,91</t>
+          <t>40,6; 54,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,35; 20,21</t>
+          <t>45,86; 56,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,88; 43,8</t>
+          <t>33,39; 46,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,93; 29,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,41; 27,78</t>
+          <t>29,9; 40,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,94; 40,37</t>
+          <t>33,37; 44,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,08; 28,73</t>
+          <t>41,97; 50,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,83; 22,96</t>
+          <t>33,39; 44,3</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>34,26; 42,96</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>38,61; 47,06</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>45,7; 52,55</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>34,8; 43,75</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,95%</t>
+          <t>26,62%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>31,56%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>37,02%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>24,78%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>28,99%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,03; 23,43</t>
+          <t>27,03; 43,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>32,68; 45,78</t>
+          <t>17,65; 31,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,06; 31,99</t>
+          <t>13,46; 20,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,45; 27,5</t>
+          <t>20,62; 32,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,94; 44,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,39; 30,03</t>
+          <t>33,9; 45,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,79; 24,13</t>
+          <t>21,02; 31,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,89; 43,66</t>
+          <t>20,38; 27,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,93; 29,21</t>
+          <t>26,48; 36,78</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>32,76; 42,48</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>20,53; 28,86</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 22,7</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>25,06; 33,03</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>48,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>49,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>41,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>43,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>46,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>47,92%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>42,8; 54,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>32,13; 44,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,9; 55,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>36,15; 46,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>38,03; 49,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,68; 51,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>40,54; 48,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36,76; 45,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>44,53; 51,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>27,99%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>40,62%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>26,52%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>39,15%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>26,14%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>29,58%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>27,72; 39,1</t>
+          <t>11,71; 23,12</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,71; 29,87</t>
+          <t>31,17; 44,88</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,22; 28,63</t>
+          <t>21,97; 31,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>30,73; 41,04</t>
+          <t>27,25; 40,98</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12,88; 21,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>23,74; 32,11</t>
+          <t>17,56; 28,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>30,88; 38,56</t>
+          <t>34,88; 46,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,51; 23,76</t>
+          <t>22,02; 30,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,08; 29,19</t>
+          <t>22,08; 31,11</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15,93; 23,58</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>34,77; 43,51</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>23,07; 29,49</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>26,02; 34,25</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>50,2%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,54%</t>
+          <t>41,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>43,61%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>44,47%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>45,65%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>41,46%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>48,29%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>42,24%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>19,24; 26,25</t>
+          <t>42,99; 57,41</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>26,34; 33,4</t>
+          <t>32,33; 45,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>25,45; 31,96</t>
+          <t>44,39; 55,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22,23; 28,21</t>
+          <t>33,35; 46,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>34,14; 40,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,97; 31,38</t>
+          <t>35,51; 48,27</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>21,62; 26,12</t>
+          <t>38,0; 49,6</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>31,29; 36,29</t>
+          <t>41,69; 51,48</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>26,7; 30,82</t>
+          <t>39,49; 50,34</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>40,67; 50,68</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>37,37; 46,21</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>44,76; 52,14</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>37,7; 46,39</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>33,53%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>46,3%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>27,67%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>47,63%</t>
+          <t>29,01%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>34,91%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>19,39%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>25,57%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>28,18%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>40,66; 48,89</t>
+          <t>26,61; 40,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>41,5; 50,11</t>
+          <t>18,05; 30,9</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>45,29; 52,7</t>
+          <t>19,45; 28,06</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>34,92; 41,42</t>
+          <t>21,43; 33,36</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>36,87; 43,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>43,45; 49,83</t>
+          <t>29,84; 42,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>38,81; 44,03</t>
+          <t>11,9; 20,57</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>40,28; 45,62</t>
+          <t>23,54; 32,1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>45,4; 49,91</t>
+          <t>24,06; 33,91</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>30,4; 39,28</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>15,95; 23,34</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>22,62; 28,81</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>24,71; 32,02</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,1434 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>28,67; 36,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>21,24; 28,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>19,38; 25,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>33,95; 40,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>19,67; 25,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,67; 27,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>32,18; 37,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>21,18; 25,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>21,67; 25,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>23,77%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>28,41%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>23,11%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>35,05%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>23,45%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>31,51%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>19,37; 29,93</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>20,95; 37,13</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>18,93; 27,85</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>27,36; 42,59</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>20,55; 27,37</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>26,25; 37,84</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>44,7%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>45,33%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>38,57%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>41,84%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>41,74%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>43,7%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>38,8; 50,9</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>36,89; 55,39</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>33,6; 43,85</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>34,64; 50,47</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>37,6; 46,18</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>37,78; 50,78</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>26,26%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>38,32%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>23,12%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>34,8%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>24,79%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>26,08; 36,96</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>18,97; 33,78</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>33,23; 43,62</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>17,46; 30,23</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>30,94; 38,7</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>19,75; 30,05</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>22,44%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>30,25%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>28,94%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>34,03%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>24,38%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>37,44%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>28,96%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>30,21%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>23,43%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>33,91%</t>
+        </is>
+      </c>
+      <c r="O36" s="2" t="inlineStr">
+        <is>
+          <t>28,95%</t>
+        </is>
+      </c>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>32,08%</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>19,53; 25,91</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>26,51; 33,86</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>26,16; 32,62</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>29,45; 39,07</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>21,56; 27,49</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>34,53; 41,29</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>26,44; 31,62</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>26,85; 34,02</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>21,29; 25,62</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>31,59; 36,37</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>27,01; 31,15</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>29,33; 35,17</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>45,37%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>45,08%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>48,91%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>40,83%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>38,33%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>39,98%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>45,67%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>40,55%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>41,78%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>42,49%</t>
+        </is>
+      </c>
+      <c r="O38" s="2" t="inlineStr">
+        <is>
+          <t>47,26%</t>
+        </is>
+      </c>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>40,68%</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>41,64; 49,72</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>41,33; 50,05</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>45,22; 52,29</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>36,07; 46,45</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>35,32; 41,56</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>37,03; 43,6</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>42,6; 48,39</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>36,92; 43,97</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>39,37; 44,33</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>40,1; 45,28</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>44,91; 49,67</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>37,66; 43,81</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>32,19%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>24,67%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>22,15%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>25,14%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>37,29%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>22,57%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>25,38%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>29,24%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>34,79%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>23,6%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>27,24%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>28,55; 35,76</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>21,47; 28,89</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>19,28; 25,75</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>21,7; 29,11</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>34,44; 40,5</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>19,67; 25,45</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>22,88; 27,81</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>25,91; 32,7</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>32,45; 37,06</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>21,5; 25,96</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>21,99; 25,86</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>24,58; 29,66</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P18_6-Estudios-long_dif.xlsx
+++ b/data/long_dif/P18_6-Estudios-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -821,7 +821,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -962,7 +962,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1248,7 +1248,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1389,7 +1389,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1675,7 +1675,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1816,7 +1816,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2102,7 +2102,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2243,7 +2243,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
